--- a/data/data_quarter.xlsx
+++ b/data/data_quarter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\DNS\balance_of_payments_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\DNS\balance_of_payments_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8F1537-89E6-4F09-AE6B-E77160DA8E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A025A6D-838B-43D5-ADA9-D82FA25E296F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4D6FCDA9-F986-4B56-9356-AA8DCBE05902}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>date</t>
   </si>
@@ -173,12 +173,21 @@
   <si>
     <t>r_dif_reserves</t>
   </si>
+  <si>
+    <t>aq_obl</t>
+  </si>
+  <si>
+    <t>aq_assets</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,13 +196,31 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -205,15 +232,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_Лист1" xfId="1" xr:uid="{B9462897-2E66-41BA-B00B-59C27516788B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -525,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849A7E3F-C9C5-4B1C-8D83-A718E642E720}">
-  <dimension ref="A1:AW57"/>
+  <dimension ref="A1:AY57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AX1" sqref="AX1:AY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,7 +568,7 @@
     <col min="49" max="49" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -685,8 +716,14 @@
       <c r="AW1" t="s">
         <v>48</v>
       </c>
+      <c r="AX1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>38718</v>
       </c>
@@ -796,7 +833,7 @@
         <v>21.430669999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>38808</v>
       </c>
@@ -906,7 +943,7 @@
         <v>40.932250000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>38899</v>
       </c>
@@ -1016,7 +1053,7 @@
         <v>13.825299999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>38991</v>
       </c>
@@ -1126,7 +1163,7 @@
         <v>31.27702</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>39083</v>
       </c>
@@ -1236,7 +1273,7 @@
         <v>32.923439999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>39173</v>
       </c>
@@ -1346,7 +1383,7 @@
         <v>65.547880000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>39264</v>
       </c>
@@ -1456,7 +1493,7 @@
         <v>7.8964699999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>39356</v>
       </c>
@@ -1566,7 +1603,7 @@
         <v>42.559730000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>39448</v>
       </c>
@@ -1676,7 +1713,7 @@
         <v>12.09168</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>39539</v>
       </c>
@@ -1786,7 +1823,7 @@
         <v>64.913489999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>39630</v>
       </c>
@@ -1896,7 +1933,7 @@
         <v>8.9063300000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>39722</v>
       </c>
@@ -2006,7 +2043,7 @@
         <v>-124.83611999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>39814</v>
       </c>
@@ -2116,7 +2153,7 @@
         <v>-30.513459999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>39904</v>
       </c>
@@ -2226,7 +2263,7 @@
         <v>14.20349</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>39995</v>
       </c>
